--- a/TestResults/AddressLabelsPost.xlsx
+++ b/TestResults/AddressLabelsPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -62,15 +62,16 @@
 	{
 		"userName":"3705426"
 	},
-	"addressLabels ":
-	{
-		"countryCode":"us",
-		"addressLineNumber":"2",
-		"brandAddressLineDescription":"Address Line 1",
-		"fullAddressLineDescription":"Number and Street Name",
-		"languageCode":"en",
-		"applicable":"1",
-		"scriptCode":"Hant"
+	"addressLabel":
+	{
+		"geopoliticalId":7639211246931386992,
+		"localeCode":"AL",
+		"addressLineNumber":1,
+		"fullAddressLineLabelDescription":"TestFullAddress",
+		"brandAddressLineLabelDescription":"TestBrandAddress",
+		"applicableFlag":"0",
+		"effectiveDate":"2022-08-01",
+		"expirationDate":"2030-08-30"
 	}
 }</t>
   </si>
@@ -78,227 +79,819 @@
     <t/>
   </si>
   <si>
-    <t>404</t>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
   <si>
     <t xml:space="preserve">
 {
-	"timestamp":1577359416860,
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Error while getting Authorization data"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the AddressLabel POST request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the Address label service is successfully created when null value passed for fullAddressLineLabelDescription attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705427"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"BU",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Validate that the Address label service is successfully created when null value passed for brandAddressLineLabelDescription attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705428"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"BY",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Validate that the Address label service is successfully created when null value passed for applicableFlag attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705429"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"BI",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":null,
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Validate that the expected error message is received when null value passed for geopoliticalId attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":null,
+		"localeCode":"Sh",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","message":{"status":"ERROR","internalMessage":"Exception","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"Error","message":"Error while getting Authorization data"}]}</t>
+  </si>
+  <si>
+    <t>countryCode is not a valid value</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Validate that the expected error message is received when null value passed for localeCode attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":null,
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426
+Input_geopoliticalId: 7293978259589461100
+Input_localeCode: null
+Input_addressLineNumber: 2
+Input_fullAddressLineLabelDescription: TestFullAddressA
+Input_brandAddressLineLabelDescription: TestBrandAddressA
+Input_applicableFlag: 1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"localeCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Validate that the expected error message is received when null value  passed for addressLineNumber attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"Sh",
+		"addressLineNumber":null,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>countryCodeaddressLineNumber is a required field</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Validate that the expected error message is received when invalid(not existing in DB) value passed for geopoliticalId attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":729397825958946,
+		"localeCode":"Sh",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Validate that the expected error message is received when invalid(not existing in DB) value passed for localeCode attributes in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"AB",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the geopoliticalId is more than 50 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"37054"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":263705426370542637054263705426370542637054263705426370542637054263705426370542637054263705426,
+		"localeCode":"Sh",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>countryCodecannot be greater than 50 digits</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the localeCode is more than 18 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"QRQRQRQRQRQRQRQRQRQRQR",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426
+Input_geopoliticalId: 7293978259589461100
+Input_localeCode: QRQRQRQRQRQRQRQRQRQRQR
+Input_addressLineNumber: 2
+Input_fullAddressLineLabelDescription: TestFullAddressA
+Input_brandAddressLineLabelDescription: TestBrandAddressA
+Input_applicableFlag: 1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"localeCode",
+			"message":" cannot be greater than 18 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the addressLineNumber is more than 2 number length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"QR",
+		"addressLineNumber":2111,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","message":{"status":"ERROR","internalMessage":"Validation Failed","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"addressLineNumber","message":"cannot be greater than 38 digits"}]}</t>
+  </si>
+  <si>
+    <t>countryCode cannot be greater than 2 characters!</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the fullAddressLineLabelDescription is more than 80 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"QR",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426
+Input_geopoliticalId: 7293978259589461100
+Input_localeCode: QR
+Input_addressLineNumber: 2
+Input_fullAddressLineLabelDescription: TestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressATestFullAddressA
+Input_brandAddressLineLabelDescription: TestBrandAddressA
+Input_applicableFlag: 1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"fullAddressLineLabelDescription",
+			"message":" cannot be greater than 80 character!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the brandAddressLineLabelDescription is more than 35 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"QR",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426
+Input_geopoliticalId: 7293978259589461100
+Input_localeCode: QR
+Input_addressLineNumber: 2
+Input_fullAddressLineLabelDescription: TestFullAddressA
+Input_brandAddressLineLabelDescription: TestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressATestBrandAddressA
+Input_applicableFlag: 1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"brandAddressLineLabelDescription",
+			"message":" cannot be greater than 35 character!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426370542637054263705426370542637054263705426370542637054263705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"QR",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426370542637054263705426370542637054263705426370542637054263705426
+Input_geopoliticalId: 7293978259589461100
+Input_localeCode: QR
+Input_addressLineNumber: 2
+Input_fullAddressLineLabelDescription: TestFullAddressA
+Input_brandAddressLineLabelDescription: TestBrandAddressA
+Input_applicableFlag: 1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":null
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"QR",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: null
+Input_geopoliticalId: 7293978259589461100
+Input_localeCode: QR
+Input_addressLineNumber: 2
+Input_fullAddressLineLabelDescription: TestFullAddressA
+Input_brandAddressLineLabelDescription: TestBrandAddressA
+Input_applicableFlag: 1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"addressLabel":
+	{
+		"geopoliticalId":"7293978259589461100",
+		"localeCode":"QR",
+		"addressLineNumber":"2",
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426
+Input_geopoliticalId: 7293978259589461100
+Input_localeCode: QR
+Input_addressLineNumber: 2
+Input_fullAddressLineLabelDescription: TestFullAddressA
+Input_brandAddressLineLabelDescription: TestBrandAddressA
+Input_applicableFlag: 1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Validate that the expected error message is received when user try to process same request again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"AQ",
+		"addressLineNumber":1,
+		"fullAddressLineLabelDescription":"TestFullAddress",
+		"brandAddressLineLabelDescription":"TestBrandAddress",
+		"applicableFlag":"0",
+		"effectiveDate":"2022-08-01",
+		"expirationDate":"2030-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>countryCodeRecord already exists.</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Validate that the expected error message is received when passing the invalid url.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"addressLabel":
+	{
+		"geopoliticalId":7293978259589461100,
+		"localeCode":"QR",
+		"addressLineNumber":2,
+		"fullAddressLineLabelDescription":"TestFullAddressA",
+		"brandAddressLineLabelDescription":"TestBrandAddressA",
+		"applicableFlag":"1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"timestamp":1587478332558,
 	"status":404,
 	"error":"Not Found",
 	"message":"No message available",
-	"path":"/addresslabels"
+	"path":"/v1/addressLa"
 }</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Validate that the Address label service is successfully created when null value passed for scriptCode attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-	"meta":
-	{
-		"userName":"3705426"
-	},
-	"addressLabels ":
-	{
-		"countryCode":"us",
-		"addressLineNumber":"2",
-		"brandAddressLineDescription":"Address Line 1",
-		"fullAddressLineDescription":"Number and Street Name",
-		"languageCode":"en",
-		"applicable":"1",
-		"scriptCode":""
-	}
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-	"timestamp":1577359418096,
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/addresslabels"
-}</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when null value passed for countryCode attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-	"meta":
-	{
-		"userName":"3705426"
-	},
-	"addressLabels ":
-	{
-		"countryCode":"",
-		"addressLineNumber":"2",
-		"brandAddressLineDescription":"Address Line 1",
-		"fullAddressLineDescription":"Number and Street Name",
-		"languageCode":"en",
-		"applicable":"1",
-		"scriptCode":"Hant"
-	}
-}</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 404 Not Found</t>
-  </si>
-  <si>
-    <t>{"timestamp":1577359419239,"status":404,"error":"Not Found","message":"No message available","path":"/addresslabels"}</t>
-  </si>
-  <si>
-    <t>countryCode is a required field</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when null value  passed for addressLineNumber attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t>java.lang.NullPointerException</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when null value passed for brandAddressLineDescription attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when null value  passed for fullAddressLineDescription attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when null value  passed for languageCode attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when null value  passed for applicable attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when invalid(not existing in DB) value passed for countryCode attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when invalid(not existing in DB) value passed for languageCode attributes in JSON Request.</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when user try to process same request again.</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>Validate that the expected error message is received when passing the invalid url.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input_UserName: 3705426
-Input_countryCode: us
-Input_addressLineNumber: 2
-Input_brandAddressLineDescription: Address Line 1
-Input_fullAddressLineDescription: Number and Street Name
-Input_languageCode: en
-Input_applicable: 1
-Input_scriptCode: Hant
-</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-	"timestamp":1577359428592,
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/addresslabel"
-}</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>Validate that multiple expected error message is received when passing multiple invalid values for attributes in JSON request.</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the countryCode is more than 2 characters length in JSON</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the brandAddressLineDescription is more than 35 characters length in JSON</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the fullAddressLineDescription is more than 80 characters length in JSON</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the languageCode is more than 3 characters length in JSON</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the scriptCode is more than 18 characters length in JSON</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the user name is null in JSON</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
   </si>
 </sst>
 </file>
@@ -306,7 +899,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="233">
+  <fonts count="222">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -653,827 +1246,772 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1542,7 +2080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2205,39 +2743,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2319,63 +2824,71 @@
       <c r="F2" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" t="s" s="8">
+        <v>16</v>
+      </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="K2" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s" s="22">
-        <v>18</v>
-      </c>
-      <c r="K3" s="23"/>
+      <c r="K3" t="s" s="23">
+        <v>15</v>
+      </c>
       <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="26">
         <v>13</v>
       </c>
       <c r="D4" t="s" s="27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s" s="28">
         <v>15</v>
@@ -2384,34 +2897,34 @@
         <v>15</v>
       </c>
       <c r="G4" t="s" s="30">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="32">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s" s="34">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L4"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="35">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="36">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="37">
         <v>13</v>
       </c>
       <c r="D5" t="s" s="38">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s" s="39">
         <v>15</v>
@@ -2420,34 +2933,34 @@
         <v>15</v>
       </c>
       <c r="G5" t="s" s="41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s" s="45">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="46">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="48">
         <v>13</v>
       </c>
       <c r="D6" t="s" s="49">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="50">
         <v>15</v>
@@ -2456,34 +2969,34 @@
         <v>15</v>
       </c>
       <c r="G6" t="s" s="52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="54">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="56">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s" s="58">
         <v>34</v>
-      </c>
-      <c r="B7" t="s" s="58">
-        <v>35</v>
       </c>
       <c r="C7" t="s" s="59">
         <v>13</v>
       </c>
       <c r="D7" t="s" s="60">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s" s="61">
         <v>15</v>
@@ -2492,70 +3005,70 @@
         <v>15</v>
       </c>
       <c r="G7" t="s" s="63">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s" s="64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s" s="66">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="67">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="70">
         <v>13</v>
       </c>
       <c r="D8" t="s" s="71">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s" s="72">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s" s="73">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="74">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="77">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s" s="78">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="79">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="80">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="81">
         <v>13</v>
       </c>
       <c r="D9" t="s" s="82">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s" s="83">
         <v>15</v>
@@ -2564,34 +3077,34 @@
         <v>15</v>
       </c>
       <c r="G9" t="s" s="85">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="86">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="87">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="88">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="89">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="90">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s" s="91">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="92">
         <v>13</v>
       </c>
       <c r="D10" t="s" s="93">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="94">
         <v>15</v>
@@ -2600,34 +3113,34 @@
         <v>15</v>
       </c>
       <c r="G10" t="s" s="96">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="97">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="98">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s" s="99">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="100">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="101">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="102">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s" s="103">
         <v>13</v>
       </c>
       <c r="D11" t="s" s="104">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s" s="105">
         <v>15</v>
@@ -2636,34 +3149,34 @@
         <v>15</v>
       </c>
       <c r="G11" t="s" s="107">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s" s="108">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="109">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s" s="110">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="111">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="112">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="113">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="114">
         <v>13</v>
       </c>
       <c r="D12" t="s" s="115">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s" s="116">
         <v>15</v>
@@ -2672,52 +3185,52 @@
         <v>15</v>
       </c>
       <c r="G12" t="s" s="118">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="119">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="120">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s" s="121">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s" s="122">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="L12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="123">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="124">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="125">
         <v>13</v>
       </c>
       <c r="D13" t="s" s="126">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s" s="127">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s" s="128">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="129">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s" s="130">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="131">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s" s="132">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="133">
         <v>15</v>
@@ -2726,16 +3239,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="134">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s" s="135">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s" s="136">
         <v>13</v>
       </c>
       <c r="D14" t="s" s="137">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s" s="138">
         <v>15</v>
@@ -2744,214 +3257,214 @@
         <v>15</v>
       </c>
       <c r="G14" t="s" s="140">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s" s="141">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s" s="142">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s" s="143">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="144">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="L14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="145">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s" s="146">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s" s="147">
         <v>13</v>
       </c>
       <c r="D15" t="s" s="148">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s" s="149">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="150">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="151">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="152">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="153">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="154">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="155">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="156">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s" s="157">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s" s="158">
         <v>13</v>
       </c>
       <c r="D16" t="s" s="159">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s" s="160">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="161">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="162">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s" s="163">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s" s="164">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="165">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="166">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="167">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s" s="168">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s" s="169">
         <v>13</v>
       </c>
       <c r="D17" t="s" s="170">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s" s="171">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="172">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="173">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s" s="174">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s" s="175">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="176">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s" s="177">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="178">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s" s="179">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s" s="180">
         <v>13</v>
       </c>
       <c r="D18" t="s" s="181">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s" s="182">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="183">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="184">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="185">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s" s="186">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="187">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s" s="188">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="189">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s" s="190">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s" s="191">
         <v>13</v>
       </c>
       <c r="D19" t="s" s="192">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s" s="193">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s" s="194">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="195">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s" s="196">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s" s="197">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s" s="198">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s" s="199">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="200">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s" s="201">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s" s="202">
         <v>13</v>
       </c>
       <c r="D20" t="s" s="203">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s" s="204">
         <v>15</v>
@@ -2960,93 +3473,57 @@
         <v>15</v>
       </c>
       <c r="G20" t="s" s="206">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s" s="207">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s" s="208">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="209">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s" s="210">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="211">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s" s="212">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s" s="213">
         <v>13</v>
       </c>
       <c r="D21" t="s" s="214">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s" s="215">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s" s="216">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="217">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s" s="218">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s" s="219">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s" s="220">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="221">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="222">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s" s="223">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s" s="224">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s" s="225">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s" s="226">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s" s="227">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s" s="228">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s" s="229">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s" s="230">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s" s="231">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s" s="232">
-        <v>31</v>
-      </c>
-      <c r="L22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
